--- a/supplementalData/Table S3.xlsx
+++ b/supplementalData/Table S3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/Dropbox/_Manuscripts/16 Species Paper/_ToSubmit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/projects/GitHub/Drosophila14GenomesProject/supplementalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB9157C-E441-AF40-B361-E5F7B3F9B2AF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S3-IlluminaData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>AGTTCC</t>
   </si>
@@ -84,12 +85,6 @@
   </si>
   <si>
     <t>D. mauritiana</t>
-  </si>
-  <si>
-    <t>CTTGTA</t>
-  </si>
-  <si>
-    <t>D. kikkawai</t>
   </si>
   <si>
     <t>CAGATC</t>
@@ -143,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -546,11 +541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,35 +559,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3">
         <v>47188502</v>
@@ -603,13 +598,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3">
         <v>90132342</v>
@@ -620,13 +615,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>79440736</v>
@@ -637,13 +632,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3">
         <v>92768772</v>
@@ -654,13 +649,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3">
         <v>95866200</v>
@@ -670,177 +665,160 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
+      <c r="A9" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
-        <v>90107458</v>
+        <v>57144400</v>
       </c>
       <c r="E9" s="2">
-        <v>64.301230732635588</v>
+        <v>54.285370487650411</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3">
-        <v>57144400</v>
+        <v>82467984</v>
       </c>
       <c r="E10" s="2">
-        <v>54.285370487650411</v>
+        <v>74.384832230908003</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3">
-        <v>82467984</v>
+        <v>88216450</v>
       </c>
       <c r="E11" s="2">
-        <v>74.384832230908003</v>
+        <v>67.135806697108066</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
-        <v>88216450</v>
+        <v>81339550</v>
       </c>
       <c r="E12" s="2">
-        <v>67.135806697108066</v>
+        <v>72.754516994633278</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
+      <c r="A13" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>81339550</v>
+        <v>95637926</v>
       </c>
       <c r="E13" s="2">
-        <v>72.754516994633278</v>
+        <v>86.056922015596882</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3">
-        <v>95637926</v>
+        <v>61054434</v>
       </c>
       <c r="E14" s="2">
-        <v>86.056922015596882</v>
+        <v>57.381986842105263</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>9</v>
+      <c r="A15" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
-        <v>61054434</v>
+        <v>73918904</v>
       </c>
       <c r="E15" s="2">
-        <v>57.381986842105263</v>
+        <v>34.074479409956979</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>73918904</v>
+        <v>77232534</v>
       </c>
       <c r="E16" s="2">
-        <v>34.074479409956979</v>
+        <v>56.401558422590071</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>4</v>
+      <c r="A17" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>77232534</v>
+        <v>84656084</v>
       </c>
       <c r="E17" s="2">
-        <v>56.401558422590071</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>84656084</v>
-      </c>
-      <c r="E18" s="2">
         <v>74.390231985940247</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="1"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
